--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1354528.107486923</v>
+        <v>1338772.428099889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3331103.41782423</v>
+        <v>3665662.993311166</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2925017.958973214</v>
+        <v>2882756.104655363</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10451974.42983862</v>
+        <v>10493698.59696478</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>14.23786685709838</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.7520180520663</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.44871811097098</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>64.78298158190889</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>161.100202706193</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>128.4958784639332</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9038981315144</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>164.1314710794257</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.5133150407452</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>141.0858061727444</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>12.07711902548389</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>181.1611956319094</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.194289160696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1034,7 +1034,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.23266789331969</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.279329433658</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>17.35353339433478</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.62994551992853</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017898</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.0167291702121</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>48.97794782094464</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>43.82642114172545</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>89.08922412953278</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>165.0140383262352</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>33.23657099140099</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>206.8676533819191</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>89.08922412953278</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>181.9834643821985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.42240792162525</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.6823614795159</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>198.7784918726186</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>46.18719652447322</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.5842797810748</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.35146980185877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.1707519847948</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.8026695426854</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7172781444514</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.482788338502</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>21.66714102769306</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>20.53226464137161</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.063564612257</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>108.6976983913063</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.86390118047709</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>31.4221870082104</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>93.4293110656083</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>72.91326427309509</v>
       </c>
       <c r="T44" t="n">
-        <v>78.41464337543846</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>174.7430637258771</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>182.8414065694713</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1581.838811788213</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1212.876294847802</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>854.6105962410512</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>468.822343642807</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>57.8364388531994</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>121.1007290505088</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>358.2167205189915</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>704.6567027080912</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1106.744480204648</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1500.706460765115</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1827.525949731197</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2068.784439420104</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332392</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332392</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332392</v>
+        <v>1971.978143764025</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332392</v>
+        <v>1971.978143764025</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071312</v>
+        <v>1971.978143764025</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>1581.838811788213</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>513.376752074654</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>338.923722793527</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>189.9893131322757</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>189.9893131322757</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>51.11717751945361</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>403.5527159781571</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>866.8075876893511</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1358.030450784305</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>1740.987724089133</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2031.341630348456</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2172.737757958032</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2107.30040282479</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>1944.572925343787</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>1814.779108713552</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1586.593353025153</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1351.44124479341</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1097.203888065209</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>889.3523878596759</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>681.592089094722</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>355.1710392131905</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>355.1710392131905</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>355.1710392131905</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>355.1710392131905</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>355.1710392131905</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>185.9656704851651</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>185.9656704851651</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>43.45475515916063</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>76.34890807495276</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>173.968533349657</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>287.2838640148967</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>403.3394258109876</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>494.5192257521837</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>549.0186141701816</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.8195040434302</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.8195040434302</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.8195040434302</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406182</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>565.6058934251438</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>415.489254012808</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1404.597857825387</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1035.635340884975</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1035.635340884975</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>649.8470882867307</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910852</v>
+        <v>238.8611834971231</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>224.937779435714</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252749</v>
@@ -4804,16 +4804,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2578.857830316465</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2360.223163288527</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2106.461377926619</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.461377926619</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.692722656504</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4989,19 +4989,19 @@
         <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245966</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245966</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791645</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791645</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>224.6669506791645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1200.239783601035</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C11" t="n">
-        <v>1200.239783601035</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1200.239783601035</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>1200.239783601035</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>789.2538788114275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,25 +5041,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K11" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L11" t="n">
-        <v>1094.46325341956</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M11" t="n">
-        <v>1281.162666244967</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N11" t="n">
-        <v>1475.49687913695</v>
+        <v>2290.483082123151</v>
       </c>
       <c r="O11" t="n">
-        <v>2022.658083904027</v>
+        <v>2460.65210744011</v>
       </c>
       <c r="P11" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q11" t="n">
         <v>2697.149091018222</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2647.676416451612</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2647.676416451612</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="U11" t="n">
-        <v>2647.676416451612</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="V11" t="n">
-        <v>2316.613529108041</v>
+        <v>2321.817091410283</v>
       </c>
       <c r="W11" t="n">
-        <v>1963.844873837927</v>
+        <v>1969.048436140168</v>
       </c>
       <c r="X11" t="n">
-        <v>1590.379115576847</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y11" t="n">
-        <v>1200.239783601035</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L12" t="n">
-        <v>829.2828935107518</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M12" t="n">
-        <v>1469.828242977856</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N12" t="n">
-        <v>2137.372643004866</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O12" t="n">
-        <v>2296.884955673627</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P12" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q12" t="n">
         <v>2636.288039261394</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.7512371688721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>572.8150542409652</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>422.6984148286294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>422.6984148286294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>422.6984148286294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5223,28 +5223,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R13" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S13" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T13" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U13" t="n">
-        <v>923.3997019991118</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V13" t="n">
-        <v>923.3997019991118</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W13" t="n">
-        <v>923.3997019991118</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="X13" t="n">
-        <v>923.3997019991118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.3997019991118</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2114.72610711884</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C14" t="n">
-        <v>1745.763590178429</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D14" t="n">
-        <v>1387.497891571678</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="E14" t="n">
-        <v>1001.709638973434</v>
+        <v>498.5011805406801</v>
       </c>
       <c r="F14" t="n">
-        <v>590.7237341838262</v>
+        <v>87.51527575107252</v>
       </c>
       <c r="G14" t="n">
-        <v>173.6359524202537</v>
+        <v>87.51527575107252</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>242.5828808341008</v>
+        <v>155.2015745221043</v>
       </c>
       <c r="K14" t="n">
-        <v>646.0499938541462</v>
+        <v>357.700474645681</v>
       </c>
       <c r="L14" t="n">
-        <v>1094.46325341956</v>
+        <v>649.9074176686917</v>
       </c>
       <c r="M14" t="n">
-        <v>1281.162666244967</v>
+        <v>1317.451817695702</v>
       </c>
       <c r="N14" t="n">
-        <v>1475.49687913695</v>
+        <v>1984.996217722712</v>
       </c>
       <c r="O14" t="n">
-        <v>2022.658083904027</v>
+        <v>2314.02709929679</v>
       </c>
       <c r="P14" t="n">
-        <v>2451.973130243322</v>
+        <v>2560.346343462825</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5311,19 +5311,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2488.19186537992</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2488.19186537992</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2488.19186537992</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>2114.72610711884</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y14" t="n">
-        <v>2114.72610711884</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>967.3646662469702</v>
+        <v>944.1571494126568</v>
       </c>
       <c r="C15" t="n">
-        <v>792.9116369658432</v>
+        <v>769.7041201315299</v>
       </c>
       <c r="D15" t="n">
-        <v>643.9772273045919</v>
+        <v>620.7697104702786</v>
       </c>
       <c r="E15" t="n">
-        <v>484.7397722991365</v>
+        <v>461.532255464823</v>
       </c>
       <c r="F15" t="n">
-        <v>338.2052143260214</v>
+        <v>314.997697491708</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7638166852434</v>
+        <v>178.0710190958933</v>
       </c>
       <c r="H15" t="n">
-        <v>99.84783883004796</v>
+        <v>82.12614552758103</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>172.6022336772601</v>
+        <v>220.2641839727268</v>
       </c>
       <c r="K15" t="n">
-        <v>502.03063798307</v>
+        <v>631.1544528172395</v>
       </c>
       <c r="L15" t="n">
-        <v>639.260235998764</v>
+        <v>877.9195807237037</v>
       </c>
       <c r="M15" t="n">
-        <v>1279.805585465869</v>
+        <v>1185.239714003666</v>
       </c>
       <c r="N15" t="n">
-        <v>1947.349985492879</v>
+        <v>1515.102341667698</v>
       </c>
       <c r="O15" t="n">
-        <v>2106.86229816164</v>
+        <v>1794.642406886395</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.574583200926</v>
+        <v>2285.189978420503</v>
       </c>
       <c r="Q15" t="n">
-        <v>2636.288039261394</v>
+        <v>2580.299395736217</v>
       </c>
       <c r="R15" t="n">
-        <v>2615.176139663581</v>
+        <v>2580.299395736217</v>
       </c>
       <c r="S15" t="n">
-        <v>2465.709350526216</v>
+        <v>2440.393290819991</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.720054686303</v>
+        <v>2245.478674743769</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.581267197469</v>
+        <v>2017.373750363156</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.429158965726</v>
+        <v>1782.221642131413</v>
       </c>
       <c r="W15" t="n">
-        <v>1551.191802237525</v>
+        <v>1527.984285403212</v>
       </c>
       <c r="X15" t="n">
-        <v>1343.340302031992</v>
+        <v>1320.132785197679</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.580003267038</v>
+        <v>1112.372486432725</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.7512371688721</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C16" t="n">
-        <v>572.8150542409652</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D16" t="n">
-        <v>422.6984148286294</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E16" t="n">
-        <v>422.6984148286294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>422.6984148286294</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>66.32567428427434</v>
       </c>
       <c r="K16" t="n">
-        <v>154.9909114159743</v>
+        <v>216.5110785288858</v>
       </c>
       <c r="L16" t="n">
-        <v>339.8239063167927</v>
+        <v>464.2231235400151</v>
       </c>
       <c r="M16" t="n">
-        <v>545.0935070360306</v>
+        <v>735.7898663071978</v>
       </c>
       <c r="N16" t="n">
-        <v>750.9168718721348</v>
+        <v>1006.333975334745</v>
       </c>
       <c r="O16" t="n">
-        <v>925.0117672607337</v>
+        <v>1240.208953340142</v>
       </c>
       <c r="P16" t="n">
-        <v>1050.459343859349</v>
+        <v>1416.808717945825</v>
       </c>
       <c r="Q16" t="n">
-        <v>1053.877663279709</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="R16" t="n">
-        <v>923.3997019991118</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="S16" t="n">
-        <v>923.3997019991118</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="T16" t="n">
-        <v>923.3997019991118</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="U16" t="n">
-        <v>923.3997019991118</v>
+        <v>1271.820479723841</v>
       </c>
       <c r="V16" t="n">
-        <v>923.3997019991118</v>
+        <v>1271.820479723841</v>
       </c>
       <c r="W16" t="n">
-        <v>923.3997019991118</v>
+        <v>982.4033096868804</v>
       </c>
       <c r="X16" t="n">
-        <v>923.3997019991118</v>
+        <v>754.4137587888631</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.3997019991118</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1936.878161002493</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1936.878161002493</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1578.612462395743</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1192.824209797498</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>781.838305007891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7125304728491</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>57.34157177454836</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>326.0058134966412</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>623.2039784518288</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>911.3235320906811</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>1263.581487652667</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>1626.153153588834</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>1955.184035162912</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>2520.084000418715</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>2867.078588727418</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>2867.078588727418</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>2831.298378705574</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>2620.709703616178</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>2620.709703616178</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>2289.646816272607</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>1936.878161002493</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>1936.878161002493</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>1936.878161002493</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.5557393668408</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>773.1027100857139</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>624.1683004244626</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>464.930845419007</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>318.396287445892</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>181.4696090500773</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>85.52473548176496</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>223.6627739269107</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.5530427714234</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>881.3181706778875</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1590.920121387923</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2012.002537232271</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2291.542602450968</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2496.565083233178</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2583.697985690401</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2583.697985690401</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2443.791880774175</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2248.877264697953</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2020.77234031734</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.620232085597</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1531.382875357396</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.531375151863</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1115.771076386909</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>625.8104538428759</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>456.874270914969</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>352.1446128548519</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>204.2315192724587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>57.34157177454836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>69.72426423845823</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>219.9096684830697</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>467.621713494199</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>739.1884562613818</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1009.732565288929</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1243.607543294326</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1420.207307900009</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1459.040750872165</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1459.040750872165</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1459.040750872165</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1459.040750872165</v>
+        <v>1298.129915131015</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.912112085723</v>
+        <v>1009.001276344574</v>
       </c>
       <c r="V19" t="n">
-        <v>915.2276238798364</v>
+        <v>754.3167881386869</v>
       </c>
       <c r="W19" t="n">
-        <v>625.8104538428759</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="X19" t="n">
-        <v>625.8104538428759</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>625.8104538428759</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5767,34 +5767,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>804.0652204802083</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>635.1290375523014</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>485.0123981399656</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>485.0123981399656</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>985.713685310448</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>985.713685310448</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954967</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.0940094559511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383442</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383442</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6548,16 +6548,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4230.423978142506</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>4061.487795214599</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>3911.371155802263</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1302.145897282463</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1078.360482071968</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>789.2318432855265</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>534.5473550796396</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X31" t="n">
-        <v>4632.865022116275</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>4412.072442972745</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6703,25 +6703,25 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6782,16 +6782,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4088.763363873429</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3919.827180945522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3919.827180945522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3771.914087363129</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3771.914087363129</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014293</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>4606.170084808407</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
-        <v>4316.752914771446</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>4088.763363873429</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>4088.763363873429</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1477.030269519829</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,19 +7189,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.007103038344</v>
+        <v>268.0733921265323</v>
       </c>
       <c r="C40" t="n">
-        <v>675.007103038344</v>
+        <v>268.0733921265323</v>
       </c>
       <c r="D40" t="n">
-        <v>524.8904636260082</v>
+        <v>117.9567527141966</v>
       </c>
       <c r="E40" t="n">
-        <v>524.8904636260082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>524.8904636260082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>449.7218569567721</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2342.317607674458</v>
+        <v>990.8503160857274</v>
       </c>
       <c r="C41" t="n">
-        <v>1973.355090734047</v>
+        <v>881.0546611450139</v>
       </c>
       <c r="D41" t="n">
-        <v>1615.089392127296</v>
+        <v>881.0546611450139</v>
       </c>
       <c r="E41" t="n">
-        <v>1229.301139529052</v>
+        <v>881.0546611450139</v>
       </c>
       <c r="F41" t="n">
-        <v>818.3152347394446</v>
+        <v>470.0687563554064</v>
       </c>
       <c r="G41" t="n">
-        <v>402.1894602044027</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81850150610192</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I41" t="n">
-        <v>93.81850150610192</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J41" t="n">
-        <v>255.1789712796457</v>
+        <v>322.6072235424573</v>
       </c>
       <c r="K41" t="n">
-        <v>778.5818298486753</v>
+        <v>525.1061236660339</v>
       </c>
       <c r="L41" t="n">
-        <v>1480.185985892473</v>
+        <v>813.2256773048862</v>
       </c>
       <c r="M41" t="n">
-        <v>2277.462339612364</v>
+        <v>1165.483632866873</v>
       </c>
       <c r="N41" t="n">
-        <v>3073.007460716395</v>
+        <v>1528.055298803039</v>
       </c>
       <c r="O41" t="n">
-        <v>3779.03052174059</v>
+        <v>1857.086180377117</v>
       </c>
       <c r="P41" t="n">
-        <v>4343.930486996393</v>
+        <v>2290.927366903057</v>
       </c>
       <c r="Q41" t="n">
-        <v>4690.925075305096</v>
+        <v>2637.92195521176</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.925075305096</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>4640.55749835512</v>
+        <v>2562.855793235194</v>
       </c>
       <c r="T41" t="n">
-        <v>4429.968823265724</v>
+        <v>2352.267118145798</v>
       </c>
       <c r="U41" t="n">
-        <v>4176.354080589157</v>
+        <v>2098.652375469232</v>
       </c>
       <c r="V41" t="n">
-        <v>3845.291193245586</v>
+        <v>1767.589488125661</v>
       </c>
       <c r="W41" t="n">
-        <v>3492.522537975472</v>
+        <v>1767.589488125661</v>
       </c>
       <c r="X41" t="n">
-        <v>3119.056779714392</v>
+        <v>1767.589488125661</v>
       </c>
       <c r="Y41" t="n">
-        <v>2728.91744773858</v>
+        <v>1377.450156149849</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>984.0326690983944</v>
+        <v>944.1571494126568</v>
       </c>
       <c r="C42" t="n">
-        <v>809.5796398172674</v>
+        <v>769.7041201315299</v>
       </c>
       <c r="D42" t="n">
-        <v>660.6452301560162</v>
+        <v>620.7697104702786</v>
       </c>
       <c r="E42" t="n">
-        <v>501.4077751505606</v>
+        <v>461.5322554648232</v>
       </c>
       <c r="F42" t="n">
-        <v>354.8732171774456</v>
+        <v>314.9976974917081</v>
       </c>
       <c r="G42" t="n">
-        <v>217.9465387816309</v>
+        <v>178.0710190958934</v>
       </c>
       <c r="H42" t="n">
-        <v>122.0016652133185</v>
+        <v>82.12614552758106</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81850150610192</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
-        <v>135.3095786714595</v>
+        <v>95.43405898572209</v>
       </c>
       <c r="K42" t="n">
-        <v>407.475940178979</v>
+        <v>244.5037431877819</v>
       </c>
       <c r="L42" t="n">
-        <v>1021.373009935868</v>
+        <v>858.4008129446706</v>
       </c>
       <c r="M42" t="n">
-        <v>1328.693143215829</v>
+        <v>1165.720946224632</v>
       </c>
       <c r="N42" t="n">
-        <v>1658.555770879862</v>
+        <v>1495.583573888665</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.019532182521</v>
+        <v>1972.865871543246</v>
       </c>
       <c r="P42" t="n">
-        <v>2533.042012964731</v>
+        <v>2493.166493278994</v>
       </c>
       <c r="Q42" t="n">
-        <v>2620.174915421954</v>
+        <v>2580.299395736217</v>
       </c>
       <c r="R42" t="n">
-        <v>2620.174915421954</v>
+        <v>2580.299395736217</v>
       </c>
       <c r="S42" t="n">
-        <v>2480.268810505729</v>
+        <v>2440.393290819991</v>
       </c>
       <c r="T42" t="n">
-        <v>2285.354194429506</v>
+        <v>2245.478674743769</v>
       </c>
       <c r="U42" t="n">
-        <v>2057.249270048893</v>
+        <v>2017.373750363156</v>
       </c>
       <c r="V42" t="n">
-        <v>1822.097161817151</v>
+        <v>1782.221642131413</v>
       </c>
       <c r="W42" t="n">
-        <v>1567.859805088949</v>
+        <v>1527.984285403212</v>
       </c>
       <c r="X42" t="n">
-        <v>1360.008304883416</v>
+        <v>1320.132785197679</v>
       </c>
       <c r="Y42" t="n">
-        <v>1152.248006118462</v>
+        <v>1112.372486432725</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>857.3315121309773</v>
+        <v>85.68256465694063</v>
       </c>
       <c r="C43" t="n">
-        <v>857.3315121309773</v>
+        <v>85.68256465694063</v>
       </c>
       <c r="D43" t="n">
-        <v>707.2148727186416</v>
+        <v>85.68256465694063</v>
       </c>
       <c r="E43" t="n">
-        <v>559.3017791362485</v>
+        <v>85.68256465694063</v>
       </c>
       <c r="F43" t="n">
-        <v>412.4118316383381</v>
+        <v>85.68256465694063</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2365099581586</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81850150610192</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81850150610192</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>106.2011939700118</v>
+        <v>66.32567428427434</v>
       </c>
       <c r="K43" t="n">
-        <v>256.3865982146232</v>
+        <v>216.5110785288858</v>
       </c>
       <c r="L43" t="n">
-        <v>504.0986432257524</v>
+        <v>464.2231235400151</v>
       </c>
       <c r="M43" t="n">
-        <v>775.6653859929352</v>
+        <v>735.7898663071978</v>
       </c>
       <c r="N43" t="n">
-        <v>1046.209495020483</v>
+        <v>1006.333975334745</v>
       </c>
       <c r="O43" t="n">
-        <v>1280.08447302588</v>
+        <v>1240.208953340142</v>
       </c>
       <c r="P43" t="n">
-        <v>1456.684237631562</v>
+        <v>1416.808717945825</v>
       </c>
       <c r="Q43" t="n">
-        <v>1495.517680603718</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="R43" t="n">
-        <v>1495.517680603718</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="S43" t="n">
-        <v>1495.517680603718</v>
+        <v>1255.722150833533</v>
       </c>
       <c r="T43" t="n">
-        <v>1401.144639123306</v>
+        <v>1031.936735623039</v>
       </c>
       <c r="U43" t="n">
-        <v>1112.016000336864</v>
+        <v>742.8080968365973</v>
       </c>
       <c r="V43" t="n">
-        <v>857.3315121309773</v>
+        <v>488.1236086307105</v>
       </c>
       <c r="W43" t="n">
-        <v>857.3315121309773</v>
+        <v>488.1236086307105</v>
       </c>
       <c r="X43" t="n">
-        <v>857.3315121309773</v>
+        <v>488.1236086307105</v>
       </c>
       <c r="Y43" t="n">
-        <v>857.3315121309773</v>
+        <v>267.3310294871803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.122707560401</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.122707560401</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D44" t="n">
-        <v>855.8570089536506</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>470.0687563554063</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>470.0687563554063</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
-        <v>155.2015745221042</v>
+        <v>322.6072235424573</v>
       </c>
       <c r="K44" t="n">
-        <v>663.4663214959387</v>
+        <v>712.628066025939</v>
       </c>
       <c r="L44" t="n">
-        <v>951.585875134791</v>
+        <v>1000.747619664791</v>
       </c>
       <c r="M44" t="n">
-        <v>1303.843830696777</v>
+        <v>1353.005575226778</v>
       </c>
       <c r="N44" t="n">
-        <v>1666.415496632944</v>
+        <v>1715.577241162944</v>
       </c>
       <c r="O44" t="n">
-        <v>1995.446378207022</v>
+        <v>2044.608122737022</v>
       </c>
       <c r="P44" t="n">
-        <v>2560.346343462825</v>
+        <v>2290.927366903057</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2637.92195521176</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2623.499329126208</v>
       </c>
       <c r="T44" t="n">
-        <v>2617.942380537981</v>
+        <v>2623.499329126208</v>
       </c>
       <c r="U44" t="n">
-        <v>2364.327637861415</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.327637861415</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="W44" t="n">
-        <v>2364.327637861415</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="X44" t="n">
-        <v>1990.861879600335</v>
+        <v>1996.418828188562</v>
       </c>
       <c r="Y44" t="n">
-        <v>1600.722547624523</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.0710190958934</v>
       </c>
       <c r="H45" t="n">
-        <v>82.12614552758104</v>
+        <v>82.12614552758106</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>95.43405898572203</v>
+        <v>95.43405898572209</v>
       </c>
       <c r="K45" t="n">
         <v>244.5037431877819</v>
       </c>
       <c r="L45" t="n">
-        <v>858.4008129446705</v>
+        <v>491.268871094246</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.720946224632</v>
+        <v>1155.486663802026</v>
       </c>
       <c r="N45" t="n">
-        <v>1495.583573888665</v>
+        <v>1485.349291466059</v>
       </c>
       <c r="O45" t="n">
-        <v>1775.123639107362</v>
+        <v>1764.889356684756</v>
       </c>
       <c r="P45" t="n">
-        <v>2295.424260843109</v>
+        <v>2285.189978420503</v>
       </c>
       <c r="Q45" t="n">
         <v>2580.299395736217</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.1183035005438</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C46" t="n">
-        <v>222.1183035005438</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D46" t="n">
-        <v>222.1183035005438</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>222.1183035005438</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>222.1183035005438</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3256742842743</v>
+        <v>66.32567428427434</v>
       </c>
       <c r="K46" t="n">
-        <v>216.5110785288857</v>
+        <v>216.5110785288858</v>
       </c>
       <c r="L46" t="n">
-        <v>464.223123540015</v>
+        <v>464.2231235400151</v>
       </c>
       <c r="M46" t="n">
         <v>735.7898663071978</v>
@@ -7833,25 +7833,25 @@
         <v>1455.642160917981</v>
       </c>
       <c r="S46" t="n">
-        <v>1279.134015740327</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="T46" t="n">
-        <v>1055.348600529833</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="U46" t="n">
-        <v>766.2199617433913</v>
+        <v>1455.642160917981</v>
       </c>
       <c r="V46" t="n">
-        <v>511.5354735375045</v>
+        <v>1200.957672712094</v>
       </c>
       <c r="W46" t="n">
-        <v>222.1183035005438</v>
+        <v>911.5405026751334</v>
       </c>
       <c r="X46" t="n">
-        <v>222.1183035005438</v>
+        <v>683.5509517771161</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.1183035005438</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>73.00817631160973</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>53.57815505481258</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050826</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>91.69549323938432</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9420782949372</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>473.6238973478236</v>
+        <v>258.1828939084839</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>312.2066704284449</v>
+        <v>4.12867614561452</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>318.4711560252763</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>308.0532667584278</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>5.89103016948431</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>191.9420782949371</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>95.65582306223331</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>406.3452701313881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>92.14120018213623</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10196,19 +10196,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>60.70896673919594</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>189.4161033938434</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>308.8543907578363</v>
+        <v>189.4161033938435</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>105.6749393071955</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>168.8254419732406</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>77.83155242503766</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176898</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -23472,16 +23472,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>60.69561706280197</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>272.0506781199167</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>44.28713284038153</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>77.83155242503766</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>104.2538880163788</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.52795688357358</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>44.93311153869642</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>22.76906918577069</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>121.0596245741546</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.8367682418564</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.4805103800785</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.2502960381364</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>10.65497486614538</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>3.118140440917813</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>5.776290318926186</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>199.8804200306962</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>125.9016980051976</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>2.430003851120574</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>256.5751933797012</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.08646362472177</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>135.0713814551672</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>128.1182499927809</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>60.03710053210374</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0681449630634</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>23.17774625772614</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>35.74324678262346</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1006203.402091039</v>
+        <v>1005130.958914048</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730176.4636244471</v>
+        <v>730176.4636244472</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730176.4636244471</v>
+        <v>727270.1895035642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744705.1940277388</v>
+        <v>949269.403154752</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>949269.4031547519</v>
+        <v>949269.403154752</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949269.4031547521</v>
+        <v>949269.4031547519</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>949269.4031547521</v>
+        <v>949269.403154752</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>931834.3986305774</v>
+        <v>727270.1895035643</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>727270.1895035642</v>
+        <v>727270.1895035643</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>358832.9423286739</v>
+        <v>358832.9423286738</v>
       </c>
       <c r="F2" t="n">
-        <v>358832.9423286737</v>
+        <v>368975.787364958</v>
       </c>
       <c r="G2" t="n">
-        <v>376849.7683577934</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
@@ -26349,13 +26349,13 @@
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>461360.8906924148</v>
+        <v>368975.7873649581</v>
       </c>
       <c r="P2" t="n">
-        <v>368975.7873649581</v>
+        <v>368975.7873649582</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>437281.7472539623</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145123.3723541993</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,22 +26377,22 @@
         <v>173320.0863769027</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>187261.4043474446</v>
       </c>
       <c r="G3" t="n">
-        <v>195835.3540406571</v>
+        <v>148259.8042582232</v>
       </c>
       <c r="H3" t="n">
-        <v>134484.6761361144</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>142120.9494857928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33741.67399175882</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>241979.6915840695</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26429,22 +26429,22 @@
         <v>42934.36820522023</v>
       </c>
       <c r="F4" t="n">
-        <v>42934.36820522023</v>
+        <v>20598.65387003102</v>
       </c>
       <c r="G4" t="n">
-        <v>22961.94612802422</v>
+        <v>50690.35944859716</v>
       </c>
       <c r="H4" t="n">
-        <v>50690.35944859717</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="I4" t="n">
         <v>50690.35944859717</v>
       </c>
       <c r="J4" t="n">
+        <v>50690.35944859718</v>
+      </c>
+      <c r="K4" t="n">
         <v>50690.35944859717</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50690.35944859718</v>
       </c>
       <c r="L4" t="n">
         <v>50690.35944859717</v>
@@ -26453,13 +26453,13 @@
         <v>50690.35944859718</v>
       </c>
       <c r="N4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="O4" t="n">
-        <v>48327.06719060398</v>
+        <v>20598.65387003104</v>
       </c>
       <c r="P4" t="n">
-        <v>20598.65387003103</v>
+        <v>20598.65387003104</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>72427.74128183044</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,10 +26481,10 @@
         <v>53934.4451708468</v>
       </c>
       <c r="F5" t="n">
-        <v>53934.4451708468</v>
+        <v>59099.00262237637</v>
       </c>
       <c r="G5" t="n">
-        <v>61681.93098755614</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>89404.39758353685</v>
+        <v>59099.00262237638</v>
       </c>
       <c r="P5" t="n">
-        <v>59099.00262237636</v>
+        <v>59099.00262237638</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871156</v>
+        <v>-259064.1182012922</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274288</v>
+        <v>63578.10557322958</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274292</v>
       </c>
       <c r="E6" t="n">
-        <v>88644.04257570417</v>
+        <v>83069.37092612509</v>
       </c>
       <c r="F6" t="n">
-        <v>261964.1289526067</v>
+        <v>96864.67341870557</v>
       </c>
       <c r="G6" t="n">
-        <v>96370.53720155588</v>
+        <v>177322.7907699916</v>
       </c>
       <c r="H6" t="n">
-        <v>192072.5101518222</v>
+        <v>325582.5950282147</v>
       </c>
       <c r="I6" t="n">
-        <v>326557.1862879365</v>
+        <v>325582.5950282149</v>
       </c>
       <c r="J6" t="n">
-        <v>150133.9670953435</v>
+        <v>183461.6455424221</v>
       </c>
       <c r="K6" t="n">
-        <v>326557.1862879366</v>
+        <v>291840.921036456</v>
       </c>
       <c r="L6" t="n">
-        <v>326557.1862879365</v>
+        <v>325582.595028215</v>
       </c>
       <c r="M6" t="n">
-        <v>326557.1862879366</v>
+        <v>325582.5950282149</v>
       </c>
       <c r="N6" t="n">
-        <v>326557.1862879365</v>
+        <v>325582.5950282149</v>
       </c>
       <c r="O6" t="n">
-        <v>323629.425918274</v>
+        <v>284126.0777661502</v>
       </c>
       <c r="P6" t="n">
-        <v>289278.1308725507</v>
+        <v>284126.0777661503</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>264.8865761866226</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170863</v>
@@ -26749,13 +26749,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>543.1844394895079</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26804,7 +26804,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>716.7696471818545</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.731268826274</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>264.8865761866226</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>112.8570880304641</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
         <v>215.7324361209788</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>236.9063051160354</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>543.1844394895079</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>131.1028332650478</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,19 +27026,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>42.48237442729897</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="H4" t="n">
-        <v>498.4439960717187</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>543.1844394895079</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>131.1028332650478</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>543.1844394895079</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>131.1028332650478</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>42.48237442729897</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="P4" t="n">
-        <v>498.4439960717187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>328.5691954891491</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>169.422463526447</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>82.97793646825347</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>184.7543294662347</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>218.4343782585758</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2604632551936</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>129.0002404180686</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.7892205450826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.773761131413</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>106.732800455714</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>69.78003263382085</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>69.37233359394963</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.115350019202168</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.980302482677</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>59.58831285432256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>46.16417024751438</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>155.8158666916115</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>215.692211700091</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>225.904660070778</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2929749391611</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>274.4458793111071</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>35.28712472574836</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.04364949535761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.0141532053081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>17.43032595537917</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>306.5692393700224</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>111.785767289043</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.498373540188</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.69292621882508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.064870658036673</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>10.90560662661808</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>41.05342604395886</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>90.37956601254014</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>135.4555409672325</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>168.0445763681224</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>186.9819699329821</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>190.0075336901288</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>179.4187260842766</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>153.1297317139962</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>114.9940512730578</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>66.89118147289621</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>24.2657401200107</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>4.661471305555538</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.08518965264293381</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.569756031797641</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>5.502643780782481</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>19.61660021759422</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>53.82945035505696</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>92.00310448549891</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>123.7095278690448</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>144.3631840217093</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>148.1840479367031</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>135.5594537584501</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>108.7984127737092</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>72.72885767297608</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>35.37485257073425</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>10.58296839764477</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>2.296516636938736</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.03748394946037113</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.4776643177135816</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>4.246870024762575</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>14.36466875451389</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>33.77086726235022</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>55.49590891254156</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>71.01565683534469</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>74.87605300304806</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>73.09566781884295</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>67.51568010737063</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>57.77132802601352</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>39.99787300418001</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>21.47752468555795</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>8.324386336881233</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.040929357503484</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.02605441732983176</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>78.43027665792762</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>239.5111024934167</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>349.9393759485856</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>406.1492701985418</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>397.941394505522</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>330.1206959253352</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>243.6954441302093</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>105.003352058513</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>7.739820565952496</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>355.9954933926298</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>467.9342138496909</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>496.1847101969233</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>386.8255285907352</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>293.2867739993161</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>142.8243713228036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>33.22641708665871</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>98.60568209566082</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>114.4599299648886</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>117.2278401980715</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>92.1008080214103</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>55.04988729090701</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.267127473009</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262936</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>203.5483470267849</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>330.5578338663453</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>674.2872727545556</v>
+        <v>458.8462693152159</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L14" t="n">
-        <v>452.9426864297107</v>
+        <v>295.1585283060714</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>332.3544258324019</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>248.8073173394298</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>674.2872727545556</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502633</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>301.7295808477642</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>300.2001666214016</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>366.2340059961277</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>716.7696471818545</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>425.3357735801492</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37150,19 +37150,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>162.9903735086301</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>438.2234207332731</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>513.3987343170045</v>
+        <v>393.9604469530118</v>
       </c>
       <c r="L44" t="n">
         <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292791</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
         <v>366.2340059961277</v>
@@ -38034,13 +38034,13 @@
         <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1845934903001</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
